--- a/biology/Botanique/Annonaceae/Annonaceae.xlsx
+++ b/biology/Botanique/Annonaceae/Annonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des annonacées regroupe des plantes à fleurs primitives ; constituée de 2 500 espèces réparties en une centaine de genres, c'est la plus grande famille de l'ordre des magnoliales.
 Ce sont des arbres, des arbustes ou des lianes des zones tropicales ou subtropicales.
@@ -519,9 +531,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Annona lequel est, en langue taïno (Caraïbes), un nom vernaculaire de l’île Hispaniola (Haïti et Saint-Domingue) passé en 1535 à l’espagnol, sous la forme hanon, anon, puis en anona annona, corossoli[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Annona lequel est, en langue taïno (Caraïbes), un nom vernaculaire de l’île Hispaniola (Haïti et Saint-Domingue) passé en 1535 à l’espagnol, sous la forme hanon, anon, puis en anona annona, corossoli.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (13 avr. 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (13 avr. 2010) :
 genre Alphonsea (en)
 genre Ambavia (es)
 genre Anaxagorea (en)
@@ -656,7 +672,7 @@
 genre Uvariopsis
 genre Woodiellantha
 genre Xylopia
-Selon Angiosperm Phylogeny Website                        (20 mai 2010)[3] :
+Selon Angiosperm Phylogeny Website                        (20 mai 2010) :
 genre Afroguatteria Boutique
 genre Alphonsea Hook.f. &amp; Thomson
 genre Ambavia Le Thomas
@@ -782,7 +798,7 @@
 genre Uvariopsis Engl.
 genre Woodiellantha Rauschert
 genre Xylopia L.
-Selon DELTA Angio           (13 avr. 2010)[4] :
+Selon DELTA Angio           (13 avr. 2010) :
 genre Afroguatteria
 genre Alphonsea
 genre Ambavia
@@ -909,7 +925,7 @@
 genre Uvariopsis
 genre Woodiellantha
 genre Xylopia
-Selon ITIS      (13 avr. 2010)[5] :
+Selon ITIS      (13 avr. 2010) :
 genre Anaxagorea A. St.-Hil.
 genre Annona L.
 genre Artabotrys R. Br.
